--- a/data/intermediate_steps/bands_identified.xlsx
+++ b/data/intermediate_steps/bands_identified.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raddick/Documents/GitHub/musical-folksonomy/data/intermediate_steps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\musical-folksonomy\data\intermediate_steps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F77F86-63CF-804F-A538-AA5F892B7CA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="740" windowWidth="14400" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-765" yWindow="735" windowWidth="14400" windowHeight="16305"/>
   </bookViews>
   <sheets>
     <sheet name="bands_to_identify" sheetId="1" r:id="rId1"/>
@@ -4129,9 +4128,6 @@
     <t>All Mighty Senators</t>
   </si>
   <si>
-    <t>The DGB</t>
-  </si>
-  <si>
     <t>Doyle Lawson &amp; Quicksiler</t>
   </si>
   <si>
@@ -4181,12 +4177,15 @@
   </si>
   <si>
     <t>Garaj Mahal</t>
+  </si>
+  <si>
+    <t>Darwin's Grab Bag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5021,19 +5020,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="160" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="160" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265:B267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>800</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5145,7 +5144,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5385,15 +5384,15 @@
         <v>838</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5617,15 +5616,15 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -6505,23 +6504,23 @@
         <v>937</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -6569,15 +6568,15 @@
         <v>943</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -6593,15 +6592,15 @@
         <v>944</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -6617,39 +6616,39 @@
         <v>945</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -6705,15 +6704,15 @@
         <v>949</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -6721,15 +6720,15 @@
         <v>950</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -6785,15 +6784,15 @@
         <v>955</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -6937,7 +6936,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -6969,23 +6968,23 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -7105,23 +7104,23 @@
         <v>981</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -7145,15 +7144,15 @@
         <v>984</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -7169,15 +7168,15 @@
         <v>986</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -8561,7 +8560,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -8921,7 +8920,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>495</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>496</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>497</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>498</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>499</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>500</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>501</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>502</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>504</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>505</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>506</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>507</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>509</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>510</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>512</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>513</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>514</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>515</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>516</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>517</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>519</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>520</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>523</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>524</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>525</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>526</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>527</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>528</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>529</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>530</v>
       </c>
@@ -9289,7 +9288,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>531</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>532</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>533</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>534</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>535</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>536</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>537</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>538</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>539</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>540</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>541</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>542</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>543</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>544</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>545</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>546</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -9425,7 +9424,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>548</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>551</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -9481,7 +9480,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>557</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>565</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>566</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>567</v>
       </c>
@@ -9585,7 +9584,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>569</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -9641,7 +9640,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -9649,7 +9648,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>576</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>578</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>579</v>
       </c>
@@ -9681,7 +9680,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>582</v>
       </c>
@@ -9705,7 +9704,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>590</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>591</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>600</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>603</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -9881,7 +9880,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>611</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>615</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>616</v>
       </c>
@@ -9977,7 +9976,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>618</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>619</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>620</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>621</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>623</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>624</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>625</v>
       </c>
@@ -10049,7 +10048,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>626</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>627</v>
       </c>
@@ -10065,7 +10064,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>628</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>629</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>630</v>
       </c>
@@ -10089,7 +10088,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>631</v>
       </c>
@@ -10097,7 +10096,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>632</v>
       </c>
@@ -10105,7 +10104,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>633</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>634</v>
       </c>
@@ -10121,7 +10120,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>635</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>636</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>637</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>638</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>639</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>640</v>
       </c>
@@ -10169,7 +10168,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>641</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>642</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>643</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>644</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>645</v>
       </c>
@@ -10209,7 +10208,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>646</v>
       </c>
@@ -10217,7 +10216,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>647</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>648</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>649</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>650</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>651</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>652</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>653</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>654</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>655</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>656</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>657</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>658</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>659</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>660</v>
       </c>
@@ -10329,7 +10328,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>661</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>662</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>663</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>664</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>665</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>666</v>
       </c>
@@ -10377,7 +10376,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>667</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>668</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>669</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>670</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>671</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>672</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>673</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>674</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>675</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>676</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>677</v>
       </c>
@@ -10465,7 +10464,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>678</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>679</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>680</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>681</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>682</v>
       </c>
@@ -10505,7 +10504,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>683</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>684</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>685</v>
       </c>
@@ -10529,7 +10528,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>686</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>687</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>688</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>689</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>690</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>691</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>692</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>693</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>694</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>695</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>696</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>697</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>698</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>699</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>700</v>
       </c>
@@ -10649,7 +10648,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>701</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>702</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>703</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>704</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>705</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>706</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>707</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>708</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>709</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>710</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>711</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>712</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>713</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>714</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>715</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>716</v>
       </c>
@@ -10777,7 +10776,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>717</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>718</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>719</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>720</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>721</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>722</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>723</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>724</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>725</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>726</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>727</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>728</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>729</v>
       </c>
@@ -10881,7 +10880,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>730</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>731</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>732</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>733</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>734</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>735</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>736</v>
       </c>
@@ -10937,7 +10936,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>737</v>
       </c>
@@ -10945,7 +10944,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>738</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>739</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>740</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>741</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>742</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>743</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>744</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>745</v>
       </c>
@@ -11009,7 +11008,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>746</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>747</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>748</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>749</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>750</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>751</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>752</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>753</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>754</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>755</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>756</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>757</v>
       </c>
@@ -11105,7 +11104,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>758</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>759</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>760</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>761</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>762</v>
       </c>
@@ -11145,7 +11144,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>763</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>764</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>765</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>766</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>767</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>768</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>769</v>
       </c>
@@ -11201,7 +11200,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>770</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>771</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>772</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>773</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>774</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>775</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>776</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>777</v>
       </c>
@@ -11265,7 +11264,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>778</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>779</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>780</v>
       </c>
@@ -11289,7 +11288,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>781</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>782</v>
       </c>
@@ -11305,7 +11304,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>783</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>784</v>
       </c>
@@ -11321,7 +11320,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>785</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>786</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>787</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>788</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>789</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>790</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>791</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>792</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>793</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>794</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>795</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>796</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>797</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>798</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>799</v>
       </c>
